--- a/Public/doc/YRB/项目问题跟踪表_袁茹兵.xlsx
+++ b/Public/doc/YRB/项目问题跟踪表_袁茹兵.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -158,6 +158,28 @@
   <si>
     <t>改正</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建表的列不合适，重新建表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决中</t>
+  </si>
+  <si>
+    <t>袁茹兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计不合理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改表结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期完成</t>
   </si>
 </sst>
 </file>
@@ -766,7 +788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,7 +799,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1903,17 +1925,39 @@
       <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9"/>
+      <c r="C7" s="8">
+        <v>42864</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="8">
+        <v>42864</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">

--- a/Public/doc/YRB/项目问题跟踪表_袁茹兵.xlsx
+++ b/Public/doc/YRB/项目问题跟踪表_袁茹兵.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -180,6 +180,22 @@
   </si>
   <si>
     <t>延期完成</t>
+  </si>
+  <si>
+    <t>点击复制内容到剪切板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁茹兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需引入额外文件，还是失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -788,7 +804,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -799,7 +815,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1964,17 +1980,39 @@
       <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9"/>
+      <c r="C8" s="8">
+        <v>42865</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="8">
+        <v>42865</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">

--- a/Public/doc/YRB/项目问题跟踪表_袁茹兵.xlsx
+++ b/Public/doc/YRB/项目问题跟踪表_袁茹兵.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -804,7 +804,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -815,7 +815,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2019,8 +2019,12 @@
       <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="8">
+        <v>42866</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
